--- a/grupos/4AEV - Estadisticos 20202.xlsx
+++ b/grupos/4AEV - Estadisticos 20202.xlsx
@@ -3895,10 +3895,10 @@
         <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3915,10 +3915,10 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4055,10 +4055,10 @@
         <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4075,10 +4075,10 @@
         <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4275,10 +4275,10 @@
         <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4295,10 +4295,10 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4315,10 +4315,10 @@
         <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4335,10 +4335,10 @@
         <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4AEV - Estadisticos 20202.xlsx
+++ b/grupos/4AEV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="136">
   <si>
     <t>Materia</t>
   </si>
@@ -179,15 +179,15 @@
     <t>Polanco Domínguez Rosa María</t>
   </si>
   <si>
+    <t>Zarate Amezcua Eladio Jorge</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
     <t>González Nuñez Veronica</t>
   </si>
   <si>
-    <t>Zarate Amezcua Eladio Jorge</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
     <t>Silva Villegas Mario</t>
   </si>
   <si>
@@ -206,6 +206,9 @@
     <t>ARIZMENDI</t>
   </si>
   <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
     <t>COSCAHUA</t>
   </si>
   <si>
@@ -218,12 +221,21 @@
     <t>DORANTES</t>
   </si>
   <si>
+    <t>ESPINOSA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>HUERTA</t>
   </si>
   <si>
@@ -236,12 +248,21 @@
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>MEDRANO</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
     <t>PEREZ</t>
   </si>
   <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
     <t>SAN JUAN</t>
   </si>
   <si>
@@ -254,9 +275,15 @@
     <t>TZOMPAXTLE</t>
   </si>
   <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>NUÑEZ</t>
   </si>
   <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
     <t>TZOYONTLE</t>
   </si>
   <si>
@@ -266,30 +293,45 @@
     <t>ARIAS</t>
   </si>
   <si>
+    <t>TZOPITL</t>
+  </si>
+  <si>
+    <t>VALIENTE</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
     <t>PAZ</t>
   </si>
   <si>
+    <t>CID</t>
+  </si>
+  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
     <t>VILLAR</t>
   </si>
   <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
     <t>PACHECO</t>
   </si>
   <si>
+    <t>LOZANO</t>
+  </si>
+  <si>
     <t>HERRERA</t>
   </si>
   <si>
     <t>XILCAHUA</t>
   </si>
   <si>
+    <t>CORTES</t>
+  </si>
+  <si>
     <t>CANSECO</t>
   </si>
   <si>
@@ -305,6 +347,9 @@
     <t>KARLA IRAN</t>
   </si>
   <si>
+    <t>EUSEBIO</t>
+  </si>
+  <si>
     <t>ALMA LIZETH</t>
   </si>
   <si>
@@ -317,6 +362,12 @@
     <t>LUIS ALBERTO</t>
   </si>
   <si>
+    <t>YASIEL</t>
+  </si>
+  <si>
+    <t>GERARDO RAUL</t>
+  </si>
+  <si>
     <t>JONATHAN</t>
   </si>
   <si>
@@ -326,6 +377,15 @@
     <t>ISAAC ALESSANDRO</t>
   </si>
   <si>
+    <t>ALEXIS ARMANDO</t>
+  </si>
+  <si>
+    <t>ELIUTH ADELFO</t>
+  </si>
+  <si>
+    <t>AGUSTIN</t>
+  </si>
+  <si>
     <t>JOSE ANTONIO</t>
   </si>
   <si>
@@ -335,94 +395,34 @@
     <t>VICTOR SAUL</t>
   </si>
   <si>
+    <t>ALEXIS YAIR</t>
+  </si>
+  <si>
     <t>EMMANUEL</t>
   </si>
   <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
     <t>JUAN EFRAIN</t>
   </si>
   <si>
     <t>JUAN CARLOS</t>
   </si>
   <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>ARTURO</t>
+  </si>
+  <si>
     <t>MARTI NEFTALI</t>
   </si>
   <si>
-    <t>AGUSTIN</t>
-  </si>
-  <si>
     <t>SAUL</t>
   </si>
   <si>
     <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>ESPINOSA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MEDRANO</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>TZOPITL</t>
-  </si>
-  <si>
-    <t>VALIENTE</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>MONTERO</t>
-  </si>
-  <si>
-    <t>LOZANO</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>EUSEBIO</t>
-  </si>
-  <si>
-    <t>YASIEL</t>
-  </si>
-  <si>
-    <t>GERARDO RAUL</t>
-  </si>
-  <si>
-    <t>ALEXIS ARMANDO</t>
-  </si>
-  <si>
-    <t>ELIUTH ADELFO</t>
-  </si>
-  <si>
-    <t>ALEXIS YAIR</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>ARTURO</t>
   </si>
   <si>
     <t>MONSERRAT</t>
@@ -936,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -957,10 +957,10 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M4">
         <v>6</v>
@@ -978,10 +978,10 @@
         <v>5</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T4">
         <v>6</v>
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>6</v>
@@ -1070,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>8</v>
@@ -1135,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>6</v>
@@ -1156,10 +1156,10 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T6">
         <v>8</v>
@@ -1177,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="Y6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z6">
         <v>7</v>
@@ -1203,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1224,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -1245,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S7">
         <v>9</v>
@@ -1266,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z7">
         <v>7</v>
@@ -1292,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1313,10 +1313,10 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1334,10 +1334,10 @@
         <v>8</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -1355,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z8">
         <v>6</v>
@@ -1381,10 +1381,10 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1402,10 +1402,10 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <v>6</v>
@@ -1423,10 +1423,10 @@
         <v>5</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T9">
         <v>6</v>
@@ -1444,10 +1444,10 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA9">
         <v>6</v>
@@ -1470,10 +1470,10 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1491,10 +1491,10 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M10">
         <v>6</v>
@@ -1512,10 +1512,10 @@
         <v>5</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T10">
         <v>6</v>
@@ -1533,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA10">
         <v>6</v>
@@ -1693,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T12">
         <v>8</v>
@@ -1714,7 +1714,7 @@
         <v>7</v>
       </c>
       <c r="Z12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA12">
         <v>8</v>
@@ -1758,7 +1758,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>6</v>
@@ -1779,10 +1779,10 @@
         <v>5</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T13">
         <v>6</v>
@@ -1800,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="Y13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z13">
         <v>6</v>
@@ -1847,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>7</v>
@@ -1868,10 +1868,10 @@
         <v>8</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T14">
         <v>6</v>
@@ -1889,10 +1889,10 @@
         <v>6</v>
       </c>
       <c r="Y14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA14">
         <v>6</v>
@@ -1915,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1936,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -1957,10 +1957,10 @@
         <v>7</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T15">
         <v>6</v>
@@ -1978,10 +1978,10 @@
         <v>6</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA15">
         <v>6</v>
@@ -2049,7 +2049,7 @@
         <v>6</v>
       </c>
       <c r="S16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T16">
         <v>6</v>
@@ -2227,7 +2227,7 @@
         <v>7</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T18">
         <v>7</v>
@@ -2248,7 +2248,7 @@
         <v>7</v>
       </c>
       <c r="Z18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA18">
         <v>7</v>
@@ -2271,7 +2271,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -2292,10 +2292,10 @@
         <v>5</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -2313,10 +2313,10 @@
         <v>5</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>6</v>
@@ -2334,10 +2334,10 @@
         <v>5</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA19">
         <v>6</v>
@@ -2381,7 +2381,7 @@
         <v>5</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>6</v>
@@ -2402,10 +2402,10 @@
         <v>7</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T20">
         <v>6</v>
@@ -2494,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T21">
         <v>6</v>
@@ -2538,7 +2538,7 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -2559,7 +2559,7 @@
         <v>5</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <v>6</v>
@@ -2580,10 +2580,10 @@
         <v>5</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T22">
         <v>6</v>
@@ -2601,7 +2601,7 @@
         <v>5</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z22">
         <v>6</v>
@@ -2672,7 +2672,7 @@
         <v>7</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T23">
         <v>6</v>
@@ -2693,7 +2693,7 @@
         <v>7</v>
       </c>
       <c r="Z23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA23">
         <v>6</v>
@@ -2737,7 +2737,7 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <v>7</v>
@@ -2758,10 +2758,10 @@
         <v>10</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T24">
         <v>8</v>
@@ -2779,7 +2779,7 @@
         <v>7</v>
       </c>
       <c r="Y24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z24">
         <v>7</v>
@@ -2805,10 +2805,10 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>6</v>
@@ -2847,10 +2847,10 @@
         <v>5</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T25">
         <v>6</v>
@@ -2868,10 +2868,10 @@
         <v>5</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA25">
         <v>6</v>
@@ -2939,7 +2939,7 @@
         <v>6</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T26">
         <v>6</v>
@@ -3093,7 +3093,7 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L28">
         <v>6</v>
@@ -3114,10 +3114,10 @@
         <v>5</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T28">
         <v>8</v>
@@ -3164,7 +3164,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -3185,7 +3185,7 @@
         <v>7</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M29">
         <v>6</v>
@@ -3206,7 +3206,7 @@
         <v>6</v>
       </c>
       <c r="S29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T29">
         <v>6</v>
@@ -3227,7 +3227,7 @@
         <v>7</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA29">
         <v>6</v>
@@ -3250,10 +3250,10 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -3271,10 +3271,10 @@
         <v>5</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M30">
         <v>6</v>
@@ -3292,10 +3292,10 @@
         <v>5</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T30">
         <v>6</v>
@@ -3313,10 +3313,10 @@
         <v>5</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA30">
         <v>6</v>
@@ -3339,10 +3339,10 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -3360,10 +3360,10 @@
         <v>5</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -3381,10 +3381,10 @@
         <v>5</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T31">
         <v>6</v>
@@ -3402,10 +3402,10 @@
         <v>5</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA31">
         <v>6</v>
@@ -3571,16 +3571,16 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>24.14</v>
+        <v>48.28</v>
       </c>
       <c r="G2">
-        <v>75.86</v>
+        <v>51.72</v>
       </c>
       <c r="H2">
         <v>5.7</v>
@@ -3603,30 +3603,30 @@
         <v>29</v>
       </c>
       <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
       <c r="F3">
+        <v>58.62</v>
+      </c>
+      <c r="G3">
         <v>41.38</v>
       </c>
-      <c r="G3">
-        <v>20.69</v>
-      </c>
       <c r="H3">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>58.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -3635,30 +3635,30 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>62.07</v>
+        <v>79.31</v>
       </c>
       <c r="G4">
-        <v>17.24</v>
+        <v>20.69</v>
       </c>
       <c r="H4">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>31.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -3667,19 +3667,19 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>65.52</v>
+        <v>79.31</v>
       </c>
       <c r="G5">
-        <v>34.48</v>
+        <v>20.69</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -3699,19 +3699,19 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>75.86</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>24.14</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3791,7 +3791,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3819,526 +3819,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>19330051920042</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>19330051920042</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>19330051920046</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>19330051920051</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>19330051920051</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>19330051920049</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>19330051920052</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>19330051920052</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>19330051920057</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>19330051920056</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>18330051920022</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>19330051920061</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>19330051920061</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>19330051920050</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>19330051920050</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>19330051920064</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>19330051920068</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>19330051920071</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>18330051920074</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>18330051920074</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>19330051920418</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>19330051920076</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>18330051920029</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>18330051920029</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>19330051920079</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>19330051920079</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4383,313 +3863,313 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920051</v>
+        <v>19330051920045</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920052</v>
+        <v>19330051920046</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920061</v>
+        <v>19330051920051</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920050</v>
+        <v>19330051920049</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920074</v>
+        <v>19330051920052</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920029</v>
+        <v>19330051920053</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920079</v>
+        <v>19330051920055</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920046</v>
+        <v>19330051920057</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920049</v>
+        <v>19330051920056</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920057</v>
+        <v>18330051920022</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920056</v>
+        <v>19330051920058</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920022</v>
+        <v>19330051920060</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920064</v>
+        <v>19330051920059</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920068</v>
+        <v>19330051920061</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920071</v>
+        <v>19330051920050</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920418</v>
+        <v>19330051920064</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920076</v>
+        <v>19330051920067</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920045</v>
+        <v>19330051920068</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
         <v>126</v>
@@ -4700,13 +4180,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920053</v>
+        <v>19330051920069</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
         <v>127</v>
@@ -4717,13 +4197,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920055</v>
+        <v>19330051920071</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
         <v>128</v>
@@ -4734,13 +4214,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920058</v>
+        <v>18330051920074</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
         <v>129</v>
@@ -4751,13 +4231,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920060</v>
+        <v>19330051920074</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
         <v>130</v>
@@ -4768,16 +4248,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920059</v>
+        <v>19330051920075</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4785,16 +4265,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920067</v>
+        <v>19330051920418</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4802,16 +4282,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920069</v>
+        <v>19330051920076</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4819,13 +4299,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920074</v>
+        <v>18330051920029</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
         <v>133</v>
@@ -4836,13 +4316,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920075</v>
+        <v>19330051920079</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
         <v>134</v>
@@ -4856,10 +4336,10 @@
         <v>19330051920081</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
@@ -4875,7 +4355,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4905,21 +4385,21 @@
         <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920046</v>
+        <v>19330051920042</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -4933,16 +4413,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920046</v>
+        <v>19330051920042</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -4951,21 +4431,21 @@
         <v>52</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920057</v>
+        <v>19330051920049</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -4979,16 +4459,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920057</v>
+        <v>19330051920049</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -4997,27 +4477,27 @@
         <v>52</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920064</v>
+        <v>19330051920050</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -5025,16 +4505,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920064</v>
+        <v>19330051920050</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -5043,21 +4523,21 @@
         <v>52</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920075</v>
+        <v>19330051920076</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -5066,24 +4546,24 @@
         <v>51</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920075</v>
+        <v>19330051920076</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
@@ -5094,16 +4574,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920418</v>
+        <v>19330051920045</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -5117,45 +4597,45 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920418</v>
+        <v>19330051920046</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920045</v>
+        <v>18330051920022</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -5163,39 +4643,39 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920055</v>
+        <v>19330051920067</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920056</v>
+        <v>19330051920071</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -5204,21 +4684,21 @@
         <v>52</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920067</v>
+        <v>19330051920074</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -5232,13 +4712,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920069</v>
+        <v>19330051920418</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
         <v>132</v>
@@ -5250,75 +4730,6 @@
         <v>51</v>
       </c>
       <c r="G16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920071</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920074</v>
-      </c>
-      <c r="B18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920081</v>
-      </c>
-      <c r="B19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19">
         <v>5</v>
       </c>
     </row>
